--- a/data/trans_bre/P62-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P62-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -17,02</t>
+          <t>-42,41; -16,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,78; -6,53</t>
+          <t>-33,4; -7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -14,61</t>
+          <t>-38,14; -14,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -7,59</t>
+          <t>-27,72; -6,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,4; -23,29</t>
+          <t>-53,35; -23,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,5; -14,5</t>
+          <t>-57,77; -15,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,76; -23,47</t>
+          <t>-55,13; -24,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,87; -12,43</t>
+          <t>-38,32; -11,15</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,99; -50,39</t>
+          <t>-72,27; -49,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; -25,26</t>
+          <t>-48,05; -25,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -26,25</t>
+          <t>-48,22; -25,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,24; -15,47</t>
+          <t>-34,42; -15,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,12; -67,35</t>
+          <t>-84,89; -65,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,18; -47,55</t>
+          <t>-73,69; -47,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,02; -50,48</t>
+          <t>-74,08; -47,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,87; -23,03</t>
+          <t>-45,28; -23,1</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-64,18; -43,05</t>
+          <t>-63,93; -44,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,66; -2,59</t>
+          <t>-22,31; -1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 5,42</t>
+          <t>-19,65; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -8,03</t>
+          <t>-28,91; -8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,79; -60,69</t>
+          <t>-82,59; -62,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,86; -5,17</t>
+          <t>-39,8; -3,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 9,58</t>
+          <t>-33,18; 6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,07; -11,82</t>
+          <t>-37,13; -12,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,33; -34,68</t>
+          <t>-46,53; -34,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -17,67</t>
+          <t>-29,23; -17,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -14,75</t>
+          <t>-26,06; -14,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 25,02</t>
+          <t>-26,83; 25,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,23; -52,18</t>
+          <t>-65,79; -51,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,0; -37,43</t>
+          <t>-58,0; -37,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,32; -29,16</t>
+          <t>-47,99; -29,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 43,91</t>
+          <t>-42,91; 45,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,05; -14,03</t>
+          <t>-31,39; -12,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 2,85</t>
+          <t>-10,3; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,52</t>
+          <t>-13,01; -0,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -4,58</t>
+          <t>-19,27; -4,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,12; -31,38</t>
+          <t>-55,44; -29,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 7,51</t>
+          <t>-21,88; 7,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -0,84</t>
+          <t>-26,7; -0,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,86; -8,66</t>
+          <t>-29,73; -8,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 21,46</t>
+          <t>15,04; 21,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 22,45</t>
+          <t>13,75; 22,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 23,9</t>
+          <t>16,58; 23,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,6; 24,95</t>
+          <t>17,3; 25,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>221,32; 1101,0</t>
+          <t>247,28; 1230,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>132,63; 631,72</t>
+          <t>137,16; 613,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>297,34; 1559,2</t>
+          <t>319,03; 1849,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>191,49; 1007,34</t>
+          <t>202,44; 1022,32</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-33,01; -26,4</t>
+          <t>-33,12; -26,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -11,85</t>
+          <t>-17,93; -12,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -12,93</t>
+          <t>-18,98; -13,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 3,57</t>
+          <t>-18,98; 4,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -50,72</t>
+          <t>-58,54; -50,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -27,86</t>
+          <t>-39,35; -28,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,56; -29,02</t>
+          <t>-39,82; -29,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 6,44</t>
+          <t>-33,72; 9,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P62-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
